--- a/FSDAtestHPC/test-results/mixsim_test.xlsx
+++ b/FSDAtestHPC/test-results/mixsim_test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="41">
   <si>
     <t>FileName</t>
   </si>
@@ -181,6 +181,80 @@
   <si>
     <t>TestActivity</t>
   </si>
+  <si>
+    <t>rng(10,'twister')
+out=MixSim(3,4)
+n=200;
+[X,id]=simdataset(n, out.Pi, out.Mu, out.S);
+spmplot(X,id)</t>
+  </si>
+  <si>
+    <t>p=5;
+k=3;
+Q=MixSimreg(k,p,'BarOmega',0.01);
+n=200;
+% Q.Xdistrib.BarX in this case has dimension 5-by-3 and is equal to
+% 1.0000    1.0000    1.0000
+% 0.5000    0.5000    0.5000
+% 0.5000    0.5000    0.5000
+% 0.5000    0.5000    0.5000
+% 0.5000    0.5000    0.5000
+% Probabilities of overlapping are evaluated at
+% Q.Beta(:,1)'*Q.Xdistrib.BarX(:,1) ... Q.Beta(:,3)'*Q.Xdistrib.BarX(:,3)
+[y,X,id]=simdatasetreg(n,Q.Pi,Q.Beta,Q.S,Q.Xdistrib);
+yXplot(y,X(:,2:end),'group',id);</t>
+  </si>
+  <si>
+    <t>load fisheriris;
+Y=meas;
+Mu=grpstats(Y,species);
+S=zeros(4,4,3);
+S(:,:,1)=cov(Y(1:50,:));
+S(:,:,2)=cov(Y(51:100,:));
+S(:,:,3)=cov(Y(101:150,:));
+pigen=ones(3,1)/3;
+k=3;
+p=4;
+[OmegaMap, BarOmega, MaxOmega, StdOmega, rcMax]=overlap(k,p,pigen,Mu,S)
+disp('OmegaMap= k-by-k matrix which contains misclassification probabilities')
+disp(OmegaMap);
+disp('Average overlap')
+disp(BarOmega)
+disp('Maximum overlap')
+disp(MaxOmega)
+disp('Groups with maximum overlap')
+disp(rcMax)</t>
+  </si>
+  <si>
+    <t>out = MixSim(4,2,'BarOmega',0.01);
+n=60;
+[X,id]=simdataset(n, out.Pi, out.Mu, out.S);
+%  Simulate dataset with 10 outliers
+[X,id]=simdataset(n, out.Pi, out.Mu, out.S,'noiseunits',10);
+%  Simulate dataset with 100 outliers
+out = MixSim(4,3,'BarOmega',0.1);
+n=300;
+[X,id]=simdataset(n, out.Pi, out.Mu, out.S,'noiseunits',100);
+spmplot(X,id);</t>
+  </si>
+  <si>
+    <t>% The value of p includes the intercept
+p=5;  
+k=3;
+Q=MixSimreg(k,p,'BarOmega',0.01);
+n=200;
+% Q.Xdistrib.BarX in this case has dimension 5-by-3 and is equal to
+% 1.0000    1.0000    1.0000
+% 0.5000    0.5000    0.5000
+% 0.5000    0.5000    0.5000
+% 0.5000    0.5000    0.5000
+% 0.5000    0.5000    0.5000
+% Probabilities of overlapping are evaluated at
+% Q.Beta(:,1)'*Q.Xdistrib.BarX(:,1) ... Q.Beta(:,3)'*Q.Xdistrib.BarX(:,3)
+[y,X,id]=simdatasetreg(n,Q.Pi,Q.Beta,Q.S,Q.Xdistrib);
+% spmplot([y X(:,2:end)],id)
+yXplot(y,X,'group',id);</t>
+  </si>
 </sst>
 </file>
 
@@ -200,7 +274,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -210,14 +284,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,1026 +318,1026 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>24.894048999999999</v>
+        <v>26.188623</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1.2323980000000001</v>
+        <v>1.290527</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>8.0953540000000004</v>
+        <v>8.5933069999999994</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>14.183921</v>
+        <v>15.152995000000001</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>1.8444940000000001</v>
+        <v>1.7524120000000001</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7">
-        <v>1.1087880000000001</v>
+        <v>1.157578</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8">
-        <v>1.0318149999999999</v>
+        <v>1.0906960000000001</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
+      <c r="F8" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>4.0453440000000001</v>
+        <v>4.3578510000000001</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
+      <c r="F9" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D10">
-        <v>5.624212</v>
+        <v>5.9541199999999996</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>31</v>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D11">
-        <v>5.0056409999999998</v>
+        <v>5.1957829999999996</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>1.6462110000000001</v>
+        <v>1.711098</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13">
-        <v>0.52173899999999995</v>
+        <v>0.55402399999999996</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>32</v>
+      <c r="F13" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D14">
-        <v>0.44900200000000001</v>
+        <v>0.46843299999999999</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
+      <c r="F14" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>0.31949100000000002</v>
+        <v>0.33180599999999999</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D16">
-        <v>0.48336099999999999</v>
+        <v>0.51384700000000005</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>32</v>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D17">
-        <v>0.29738799999999999</v>
+        <v>0.30221100000000001</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
+      <c r="F17" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D18">
-        <v>0.265237</v>
+        <v>0.276308</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
+      <c r="F18" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>4.7606400000000004</v>
+        <v>5.0742060000000002</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>33</v>
+      <c r="F19" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20">
-        <v>2.4005329999999998</v>
+        <v>2.5131519999999998</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>33</v>
+      <c r="F20" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D21">
-        <v>3.378755</v>
+        <v>3.572454</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>33</v>
+      <c r="F21" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D22">
-        <v>3.4348269999999999</v>
+        <v>3.6958120000000001</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>33</v>
+      <c r="F22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D23">
-        <v>2.7619850000000001</v>
+        <v>2.9859779999999998</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>33</v>
+      <c r="F23" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D24">
-        <v>2.0405579999999999</v>
+        <v>2.1369229999999999</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>33</v>
+      <c r="F24" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D25">
-        <v>1.8203750000000001</v>
+        <v>1.9197340000000001</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>33</v>
+      <c r="F25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D26">
-        <v>1.683128</v>
+        <v>1.7240690000000001</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>33</v>
+      <c r="F26" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D27">
-        <v>6.0545429999999998</v>
+        <v>6.3264519999999997</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>33</v>
+      <c r="F27" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D28">
-        <v>3.7653650000000001</v>
+        <v>3.804338</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>33</v>
+      <c r="F28" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="A29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D29">
-        <v>1.9964519999999999</v>
+        <v>2.0048879999999998</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>33</v>
+      <c r="F29" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D30">
-        <v>2.0719989999999999</v>
+        <v>2.0339529999999999</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>33</v>
+      <c r="F30" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D31">
-        <v>1.608001</v>
+        <v>1.701119</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>33</v>
+      <c r="F31" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D32">
-        <v>5.8778689999999996</v>
+        <v>6.1765790000000003</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>33</v>
+      <c r="F32" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="A33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D33">
-        <v>3.1889159999999999</v>
+        <v>3.2866960000000001</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>33</v>
+      <c r="F33" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D34">
-        <v>3.0173700000000001</v>
+        <v>3.2278250000000002</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>33</v>
+      <c r="F34" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D35">
-        <v>2.9911379999999999</v>
+        <v>3.1808869999999998</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>33</v>
+      <c r="F35" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="A36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D36">
-        <v>2.4962040000000001</v>
+        <v>2.5896560000000002</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>33</v>
+      <c r="F36" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="A37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D37">
-        <v>1.1575839999999999</v>
+        <v>1.2198800000000001</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>34</v>
+      <c r="F37" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="A38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D38">
-        <v>1.122344</v>
+        <v>1.1836260000000001</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>34</v>
+      <c r="F38" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="A39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D39">
-        <v>4.3336410000000001</v>
+        <v>4.4922519999999997</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>34</v>
+      <c r="F39" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="A40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D40">
-        <v>2.7760940000000001</v>
+        <v>2.9183590000000001</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>34</v>
+      <c r="F40" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="A41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D41">
-        <v>1.950075</v>
+        <v>2.1148310000000001</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>34</v>
+      <c r="F41" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="A42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D42">
-        <v>1.8656410000000001</v>
+        <v>1.978721</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>34</v>
+      <c r="F42" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="A43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D43">
-        <v>1.6438550000000001</v>
+        <v>1.7873600000000001</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>34</v>
+      <c r="F43" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="A44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D44">
-        <v>1.1319710000000001</v>
+        <v>1.189765</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>34</v>
+      <c r="F44" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="A45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D45">
-        <v>3.5674109999999999</v>
+        <v>3.7985500000000001</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>34</v>
+      <c r="F45" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="A46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D46">
-        <v>3.8367580000000001</v>
+        <v>4.0257849999999999</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>34</v>
+      <c r="F46" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="A47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D47">
-        <v>0.98932699999999996</v>
+        <v>0.98233000000000004</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>34</v>
+      <c r="F47" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="A48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D48">
-        <v>0.99587300000000001</v>
+        <v>1.046975</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>34</v>
+      <c r="F48" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="A49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D49">
-        <v>1.063941</v>
+        <v>1.1433709999999999</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>34</v>
+      <c r="F49" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="A50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D50">
-        <v>2.9931489999999998</v>
+        <v>3.2302119999999999</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>34</v>
+      <c r="F50" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="A51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D51">
-        <v>3.6800679999999999</v>
+        <v>4.0287170000000003</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>34</v>
+      <c r="F51" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
